--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavithrakannappan/Documents/Python/Python_API_Rest_Framework_final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavithrakannappan/Documents/GitHub/Python_REST_API_Test_Framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B713A9-19CA-D544-9B78-AC96DCED15EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48403500-4E39-1541-8087-F2D5C6D98458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20520" xr2:uid="{C605B9F7-4E63-D046-B4C7-EACD34418772}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20520" activeTab="2" xr2:uid="{C605B9F7-4E63-D046-B4C7-EACD34418772}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Testcase1</t>
   </si>
@@ -299,6 +299,22 @@
   </si>
   <si>
     <t>total_pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "data": {
+        "id": 2,
+        "name": "fuchsia rose",
+        "year": 2001,
+        "color": "#C74375",
+        "pantone_value": "17-2031"
+    },
+    "ad": {
+        "company": "StatusCode Weekly",
+        "url": "http://statuscode.org/",
+        "text": "A weekly newsletter focusing on software development, infrastructure, the server, performance, and the stack end of things."
+    }
+</t>
   </si>
 </sst>
 </file>
@@ -672,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E243FD-052C-5D48-9A94-941AF7197387}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,7 +809,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>404</v>
+        <v>4004</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -823,7 +839,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,7 +922,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -926,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0B73F-17C2-3943-86A5-681969227EE1}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1079,7 @@
         <v>45</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavithrakannappan/Documents/GitHub/Python_REST_API_Test_Framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48403500-4E39-1541-8087-F2D5C6D98458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DD3A23-2AD0-2542-BC14-F74F8F3E0C1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20520" activeTab="2" xr2:uid="{C605B9F7-4E63-D046-B4C7-EACD34418772}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20520" xr2:uid="{C605B9F7-4E63-D046-B4C7-EACD34418772}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>Testcase1</t>
   </si>
@@ -299,22 +299,6 @@
   </si>
   <si>
     <t>total_pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "data": {
-        "id": 2,
-        "name": "fuchsia rose",
-        "year": 2001,
-        "color": "#C74375",
-        "pantone_value": "17-2031"
-    },
-    "ad": {
-        "company": "StatusCode Weekly",
-        "url": "http://statuscode.org/",
-        "text": "A weekly newsletter focusing on software development, infrastructure, the server, performance, and the stack end of things."
-    }
-</t>
   </si>
 </sst>
 </file>
@@ -688,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E243FD-052C-5D48-9A94-941AF7197387}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -809,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>4004</v>
+        <v>404</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -838,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A905F7EC-B6B9-604D-BF9F-8C4A630EBA0F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -922,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0B73F-17C2-3943-86A5-681969227EE1}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1079,7 +1063,7 @@
         <v>45</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
